--- a/Supplementary_Table_2.xlsx
+++ b/Supplementary_Table_2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>participant</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>EEG_data_used</t>
-  </si>
-  <si>
-    <t>score</t>
   </si>
   <si>
     <t>exp_duo</t>
@@ -163,10 +160,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.000000000"/>
-    <numFmt numFmtId="187" formatCode="0.000000000"/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -207,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
@@ -218,11 +214,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +434,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -456,10 +449,10 @@
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,13 +510,10 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="B2" s="3">
         <v>23</v>
@@ -541,51 +531,48 @@
         <v>45245</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1563</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1">
+        <v>253</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.0078705649999999</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.98808367600000002</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1.2563580000000001</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1.2453969869999999</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1.2137136660000001</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1.1741263449999999</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="6">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1563</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1">
-        <v>253</v>
-      </c>
-      <c r="L2">
-        <v>1.0078705649999999</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0.98808367600000002</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1.2563580000000001</v>
-      </c>
-      <c r="O2" s="7">
-        <v>1.2453969869999999</v>
-      </c>
-      <c r="P2" s="7">
-        <v>1.2137136660000001</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>1.1741263449999999</v>
-      </c>
-      <c r="R2" s="8">
-        <v>1</v>
-      </c>
-      <c r="S2" s="8">
-        <v>1</v>
-      </c>
-      <c r="T2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>26</v>
@@ -603,51 +590,48 @@
         <v>45261</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1297</v>
+      </c>
+      <c r="I3" s="1">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>317</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.66613212399999999</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.76800887699999998</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.75258906999999997</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.810284844</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.70868687200000002</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.76659227799999996</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.87179487200000005</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.90243902399999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1297</v>
-      </c>
-      <c r="J3" s="1">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1">
-        <v>317</v>
-      </c>
-      <c r="L3">
-        <v>0.66613212399999999</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0.76800887699999998</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0.75258906999999997</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0.810284844</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0.70868687200000002</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0.76659227799999996</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="S3" s="8">
-        <v>0.87179487200000005</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0.90243902399999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>28</v>
@@ -665,51 +649,48 @@
         <v>45238</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4478</v>
       </c>
       <c r="I4" s="1">
-        <v>4478</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1">
         <v>456</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="7">
         <v>0.80424047899999995</v>
       </c>
-      <c r="M4" s="7">
+      <c r="L4" s="6">
         <v>0.84438497199999996</v>
       </c>
-      <c r="N4" s="7">
+      <c r="M4" s="6">
         <v>0.88766266199999999</v>
       </c>
-      <c r="O4" s="7">
+      <c r="N4" s="6">
         <v>1.16766415</v>
       </c>
-      <c r="P4" s="7">
+      <c r="O4" s="6">
         <v>0.87618352399999999</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="P4" s="6">
         <v>1.0215000670000001</v>
       </c>
-      <c r="R4" s="8">
+      <c r="Q4" s="6">
         <v>0.95</v>
       </c>
-      <c r="S4" s="8">
+      <c r="R4" s="6">
         <v>0.743589744</v>
       </c>
-      <c r="T4" s="8">
+      <c r="S4" s="6">
         <v>0.80487804900000004</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>23</v>
@@ -727,51 +708,48 @@
         <v>45234</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2897</v>
+      </c>
+      <c r="I5" s="1">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1">
+        <v>387</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.257332283</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.2429218390000001</v>
+      </c>
+      <c r="M5" s="6">
+        <v>1.2810595339999999</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1.2477865589999999</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1.275368265</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1.2403318400000001</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="6">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2897</v>
-      </c>
-      <c r="J5" s="1">
-        <v>35</v>
-      </c>
-      <c r="K5" s="1">
-        <v>387</v>
-      </c>
-      <c r="L5">
-        <v>1.257332283</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1.2429218390000001</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1.2810595339999999</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1.2477865589999999</v>
-      </c>
-      <c r="P5" s="7">
-        <v>1.275368265</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>1.2403318400000001</v>
-      </c>
-      <c r="R5" s="8">
-        <v>1</v>
-      </c>
-      <c r="S5" s="8">
-        <v>1</v>
-      </c>
-      <c r="T5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>24</v>
@@ -789,51 +767,48 @@
         <v>45246</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="6">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2606</v>
       </c>
       <c r="I6" s="1">
-        <v>2606</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1">
-        <v>42</v>
-      </c>
-      <c r="K6" s="1">
         <v>315</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="7">
         <v>0.92003276199999995</v>
       </c>
-      <c r="M6" s="7">
+      <c r="L6" s="6">
         <v>1.195221949</v>
       </c>
-      <c r="N6" s="7">
+      <c r="M6" s="6">
         <v>1.1130123759999999</v>
       </c>
-      <c r="O6" s="7">
+      <c r="N6" s="6">
         <v>1.212864411</v>
       </c>
-      <c r="P6" s="7">
+      <c r="O6" s="6">
         <v>1.078139988</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="P6" s="6">
         <v>1.2786182109999999</v>
       </c>
-      <c r="R6" s="8">
+      <c r="Q6" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S6" s="8">
+      <c r="R6" s="6">
         <v>0.92307692299999999</v>
       </c>
-      <c r="T6" s="8">
+      <c r="S6" s="6">
         <v>0.92682926799999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>23</v>
@@ -851,51 +826,48 @@
         <v>45245</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="6">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3888</v>
       </c>
       <c r="I7" s="1">
-        <v>3888</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1">
-        <v>38</v>
-      </c>
-      <c r="K7" s="1">
         <v>436</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="7">
         <v>1.2827804650000001</v>
       </c>
-      <c r="M7" s="7">
+      <c r="L7" s="6">
         <v>1.300372992</v>
       </c>
-      <c r="N7" s="7">
+      <c r="M7" s="6">
         <v>1.304143681</v>
       </c>
-      <c r="O7" s="7">
+      <c r="N7" s="6">
         <v>1.3659030569999999</v>
       </c>
-      <c r="P7" s="7">
+      <c r="O7" s="6">
         <v>1.328955648</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="6">
         <v>1.395361737</v>
       </c>
-      <c r="R7" s="8">
+      <c r="Q7" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S7" s="8">
+      <c r="R7" s="6">
         <v>0.84615384599999999</v>
       </c>
-      <c r="T7" s="8">
+      <c r="S7" s="6">
         <v>0.82926829300000005</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3">
         <v>22</v>
@@ -913,51 +885,48 @@
         <v>45275</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="6">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2628</v>
       </c>
       <c r="I8" s="1">
-        <v>2628</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1">
-        <v>47</v>
-      </c>
-      <c r="K8" s="1">
         <v>378</v>
       </c>
-      <c r="L8">
+      <c r="K8" s="7">
         <v>1.230784705</v>
       </c>
-      <c r="M8" s="7">
+      <c r="L8" s="6">
         <v>1.263252598</v>
       </c>
-      <c r="N8" s="7">
+      <c r="M8" s="6">
         <v>1.2940432900000001</v>
       </c>
-      <c r="O8" s="7">
+      <c r="N8" s="6">
         <v>1.2989291860000001</v>
       </c>
-      <c r="P8" s="7">
+      <c r="O8" s="6">
         <v>1.2759361730000001</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="6">
         <v>1.2957375310000001</v>
       </c>
-      <c r="R8" s="8">
+      <c r="Q8" s="6">
         <v>1</v>
       </c>
-      <c r="S8" s="8">
+      <c r="R8" s="6">
         <v>0.94871794899999995</v>
       </c>
-      <c r="T8" s="8">
+      <c r="S8" s="6">
         <v>0.92682926799999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>33</v>
@@ -975,51 +944,48 @@
         <v>45275</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="6">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2397</v>
       </c>
       <c r="I9" s="1">
-        <v>2397</v>
+        <v>49</v>
       </c>
       <c r="J9" s="1">
-        <v>49</v>
-      </c>
-      <c r="K9" s="1">
         <v>351</v>
       </c>
-      <c r="L9">
+      <c r="K9" s="7">
         <v>1.211183557</v>
       </c>
-      <c r="M9" s="7">
+      <c r="L9" s="6">
         <v>1.249093674</v>
       </c>
-      <c r="N9" s="7">
+      <c r="M9" s="6">
         <v>1.3725958030000001</v>
       </c>
-      <c r="O9" s="7">
+      <c r="N9" s="6">
         <v>1.3775265910000001</v>
       </c>
-      <c r="P9" s="7">
+      <c r="O9" s="6">
         <v>1.2291178620000001</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="6">
         <v>1.3850078450000001</v>
       </c>
-      <c r="R9" s="8">
+      <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="S9" s="8">
+      <c r="R9" s="6">
         <v>0.92307692299999999</v>
       </c>
-      <c r="T9" s="8">
+      <c r="S9" s="6">
         <v>0.97560975599999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>23</v>
@@ -1037,51 +1003,48 @@
         <v>45230</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="6">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2006</v>
       </c>
       <c r="I10" s="1">
-        <v>2006</v>
+        <v>32</v>
       </c>
       <c r="J10" s="1">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1">
         <v>324</v>
       </c>
-      <c r="L10">
+      <c r="K10" s="7">
         <v>1.29816314</v>
       </c>
-      <c r="M10" s="7">
+      <c r="L10" s="6">
         <v>1.3187126199999999</v>
       </c>
-      <c r="N10" s="7">
+      <c r="M10" s="6">
         <v>1.3010788170000001</v>
       </c>
-      <c r="O10" s="7">
+      <c r="N10" s="6">
         <v>1.3170472609999999</v>
       </c>
-      <c r="P10" s="7">
+      <c r="O10" s="6">
         <v>1.34481249</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="P10" s="6">
         <v>1.3536261169999999</v>
       </c>
-      <c r="R10" s="8">
+      <c r="Q10" s="6">
         <v>1</v>
       </c>
-      <c r="S10" s="8">
+      <c r="R10" s="6">
         <v>0.97435897400000004</v>
       </c>
-      <c r="T10" s="8">
+      <c r="S10" s="6">
         <v>0.95121951199999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>21</v>
@@ -1099,51 +1062,48 @@
         <v>45245</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1612</v>
       </c>
       <c r="I11" s="1">
-        <v>1612</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1">
-        <v>40</v>
-      </c>
-      <c r="K11" s="1">
         <v>377</v>
       </c>
-      <c r="L11">
+      <c r="K11" s="7">
         <v>1.079868872</v>
       </c>
-      <c r="M11" s="7">
+      <c r="L11" s="6">
         <v>1.1744874869999999</v>
       </c>
-      <c r="N11" s="7">
+      <c r="M11" s="6">
         <v>1.269139069</v>
       </c>
-      <c r="O11" s="7">
+      <c r="N11" s="6">
         <v>1.3236809060000001</v>
       </c>
-      <c r="P11" s="7">
+      <c r="O11" s="6">
         <v>1.2430194939999999</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="P11" s="6">
         <v>1.2071330300000001</v>
       </c>
-      <c r="R11" s="8">
+      <c r="Q11" s="6">
         <v>1</v>
       </c>
-      <c r="S11" s="8">
+      <c r="R11" s="6">
         <v>0.92307692299999999</v>
       </c>
-      <c r="T11" s="8">
+      <c r="S11" s="6">
         <v>0.95121951199999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3">
         <v>34</v>
@@ -1161,51 +1121,48 @@
         <v>45230</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="6">
         <v>20</v>
       </c>
+      <c r="H12" s="1">
+        <v>2685</v>
+      </c>
       <c r="I12" s="1">
-        <v>2685</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1">
         <v>581</v>
       </c>
-      <c r="L12">
+      <c r="K12" s="7">
         <v>1.4999167579999999</v>
       </c>
-      <c r="M12" s="7">
+      <c r="L12" s="6">
         <v>1.4512903829999999</v>
       </c>
-      <c r="N12" s="7">
+      <c r="M12" s="6">
         <v>1.5843218960000001</v>
       </c>
-      <c r="O12" s="7">
+      <c r="N12" s="6">
         <v>1.559484979</v>
       </c>
-      <c r="P12" s="7">
+      <c r="O12" s="6">
         <v>1.5663979109999999</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="P12" s="6">
         <v>1.6449424029999999</v>
       </c>
-      <c r="R12" s="8">
+      <c r="Q12" s="6">
         <v>0.95</v>
       </c>
-      <c r="S12" s="8">
+      <c r="R12" s="6">
         <v>0.97435897400000004</v>
       </c>
-      <c r="T12" s="8">
+      <c r="S12" s="6">
         <v>0.97560975599999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3">
         <v>23</v>
@@ -1223,51 +1180,48 @@
         <v>45271</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="6">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2099</v>
       </c>
       <c r="I13" s="1">
-        <v>2099</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1">
-        <v>49</v>
-      </c>
-      <c r="K13" s="1">
         <v>407</v>
       </c>
-      <c r="L13">
+      <c r="K13" s="7">
         <v>1.066601076</v>
       </c>
-      <c r="M13" s="7">
+      <c r="L13" s="6">
         <v>1.2521074670000001</v>
       </c>
-      <c r="N13" s="7">
+      <c r="M13" s="6">
         <v>1.392937103</v>
       </c>
-      <c r="O13" s="7">
+      <c r="N13" s="6">
         <v>1.629579653</v>
       </c>
-      <c r="P13" s="7">
+      <c r="O13" s="6">
         <v>1.4337054819999999</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="P13" s="6">
         <v>1.478829221</v>
       </c>
-      <c r="R13" s="8">
+      <c r="Q13" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S13" s="8">
+      <c r="R13" s="6">
         <v>0.92307692299999999</v>
       </c>
-      <c r="T13" s="8">
+      <c r="S13" s="6">
         <v>0.90243902399999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
@@ -1285,51 +1239,48 @@
         <v>45237</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="6">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2722</v>
       </c>
       <c r="I14" s="1">
-        <v>2722</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
         <v>283</v>
       </c>
-      <c r="L14">
+      <c r="K14" s="7">
         <v>1.3363420130000001</v>
       </c>
-      <c r="M14" s="7">
+      <c r="L14" s="6">
         <v>1.338404674</v>
       </c>
-      <c r="N14" s="7">
+      <c r="M14" s="6">
         <v>1.3590204690000001</v>
       </c>
-      <c r="O14" s="7">
+      <c r="N14" s="6">
         <v>1.413013997</v>
       </c>
-      <c r="P14" s="7">
+      <c r="O14" s="6">
         <v>1.3614795669999999</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="P14" s="6">
         <v>1.4332036290000001</v>
       </c>
-      <c r="R14" s="8">
+      <c r="Q14" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S14" s="8">
+      <c r="R14" s="6">
         <v>0.94871794899999995</v>
       </c>
-      <c r="T14" s="8">
+      <c r="S14" s="6">
         <v>0.92682926799999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
         <v>24</v>
@@ -1347,51 +1298,48 @@
         <v>45248</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="6">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2262</v>
       </c>
       <c r="I15" s="1">
-        <v>2262</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1">
-        <v>25</v>
-      </c>
-      <c r="K15" s="1">
         <v>342</v>
       </c>
-      <c r="L15">
+      <c r="K15" s="7">
         <v>1.2653802949999999</v>
       </c>
-      <c r="M15" s="7">
+      <c r="L15" s="6">
         <v>1.3080652509999999</v>
       </c>
-      <c r="N15" s="7">
+      <c r="M15" s="6">
         <v>1.4124997239999999</v>
       </c>
-      <c r="O15" s="7">
+      <c r="N15" s="6">
         <v>1.479673673</v>
       </c>
-      <c r="P15" s="7">
+      <c r="O15" s="6">
         <v>1.449877482</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="P15" s="6">
         <v>1.5394260630000001</v>
       </c>
-      <c r="R15" s="8">
+      <c r="Q15" s="6">
         <v>1</v>
       </c>
-      <c r="S15" s="8">
+      <c r="R15" s="6">
         <v>0.94871794899999995</v>
       </c>
-      <c r="T15" s="8">
+      <c r="S15" s="6">
         <v>0.95121951199999999</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>23</v>
@@ -1409,51 +1357,48 @@
         <v>45241</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="6">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1508</v>
       </c>
       <c r="I16" s="1">
-        <v>1508</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1">
-        <v>41</v>
-      </c>
-      <c r="K16" s="1">
         <v>208</v>
       </c>
-      <c r="L16">
+      <c r="K16" s="7">
         <v>1.152060667</v>
       </c>
-      <c r="M16" s="7">
+      <c r="L16" s="6">
         <v>1.2012535870000001</v>
       </c>
-      <c r="N16" s="7">
+      <c r="M16" s="6">
         <v>1.296944659</v>
       </c>
-      <c r="O16" s="7">
+      <c r="N16" s="6">
         <v>1.503417191</v>
       </c>
-      <c r="P16" s="7">
+      <c r="O16" s="6">
         <v>1.3983708560000001</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="6">
         <v>1.445443816</v>
       </c>
-      <c r="R16" s="8">
+      <c r="Q16" s="6">
         <v>0.95</v>
       </c>
-      <c r="S16" s="8">
+      <c r="R16" s="6">
         <v>0.97435897400000004</v>
       </c>
-      <c r="T16" s="8">
+      <c r="S16" s="6">
         <v>0.95121951199999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>23</v>
@@ -1471,51 +1416,48 @@
         <v>45255</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="6">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2185</v>
       </c>
       <c r="I17" s="1">
-        <v>2185</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1">
-        <v>36</v>
-      </c>
-      <c r="K17" s="1">
         <v>291</v>
       </c>
-      <c r="L17">
+      <c r="K17" s="7">
         <v>0.58807920300000005</v>
       </c>
-      <c r="M17" s="7">
+      <c r="L17" s="6">
         <v>0.69951150299999998</v>
       </c>
-      <c r="N17" s="7">
+      <c r="M17" s="6">
         <v>0.66821575700000002</v>
       </c>
-      <c r="O17" s="7">
+      <c r="N17" s="6">
         <v>0.85635704700000004</v>
       </c>
-      <c r="P17" s="7">
+      <c r="O17" s="6">
         <v>0.74260624600000003</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="P17" s="6">
         <v>0.81328060000000002</v>
       </c>
-      <c r="R17" s="8">
+      <c r="Q17" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S17" s="8">
+      <c r="R17" s="6">
         <v>0.92307692299999999</v>
       </c>
-      <c r="T17" s="8">
+      <c r="S17" s="6">
         <v>0.80487804900000004</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3">
         <v>23</v>
@@ -1533,51 +1475,48 @@
         <v>45244</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="6">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1747</v>
       </c>
       <c r="I18" s="1">
-        <v>1747</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1">
-        <v>41</v>
-      </c>
-      <c r="K18" s="1">
         <v>278</v>
       </c>
-      <c r="L18">
+      <c r="K18" s="7">
         <v>0.90080574899999999</v>
       </c>
-      <c r="M18" s="7">
+      <c r="L18" s="6">
         <v>0.99137940300000005</v>
       </c>
-      <c r="N18" s="7">
+      <c r="M18" s="6">
         <v>1.0398971889999999</v>
       </c>
-      <c r="O18" s="7">
+      <c r="N18" s="6">
         <v>1.1084547739999999</v>
       </c>
-      <c r="P18" s="7">
+      <c r="O18" s="6">
         <v>1.0823481720000001</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="P18" s="6">
         <v>0.99556153700000005</v>
       </c>
-      <c r="R18" s="8">
+      <c r="Q18" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S18" s="8">
+      <c r="R18" s="6">
         <v>0.92307692299999999</v>
       </c>
-      <c r="T18" s="8">
+      <c r="S18" s="6">
         <v>0.92682926799999998</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <v>22</v>
@@ -1595,51 +1534,48 @@
         <v>45252</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="6">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1628</v>
       </c>
       <c r="I19" s="1">
-        <v>1628</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.93329386000000003</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1.0208093570000001</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1.0233634970000001</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1.2868604050000001</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1.323569378</v>
+      </c>
+      <c r="P19" s="6">
+        <v>1.2749485970000001</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.95121951199999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="K19" s="1">
-        <v>99</v>
-      </c>
-      <c r="L19">
-        <v>0.93329386000000003</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1.0208093570000001</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1.0233634970000001</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1.2868604050000001</v>
-      </c>
-      <c r="P19" s="7">
-        <v>1.323569378</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1.2749485970000001</v>
-      </c>
-      <c r="R19" s="8">
-        <v>1</v>
-      </c>
-      <c r="S19" s="8">
-        <v>1</v>
-      </c>
-      <c r="T19" s="8">
-        <v>0.95121951199999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B20" s="3">
         <v>23</v>
@@ -1657,51 +1593,48 @@
         <v>45235</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="6">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1933</v>
       </c>
       <c r="I20" s="1">
-        <v>1933</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1">
         <v>253</v>
       </c>
-      <c r="L20">
+      <c r="K20" s="7">
         <v>0.81746255599999995</v>
       </c>
-      <c r="M20" s="7">
+      <c r="L20" s="6">
         <v>0.74245426299999995</v>
       </c>
-      <c r="N20" s="7">
+      <c r="M20" s="6">
         <v>0.95812028900000001</v>
       </c>
-      <c r="O20" s="7">
+      <c r="N20" s="6">
         <v>0.89818552600000001</v>
       </c>
-      <c r="P20" s="7">
+      <c r="O20" s="6">
         <v>1.04772262</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="P20" s="6">
         <v>0.86244867999999997</v>
       </c>
-      <c r="R20" s="8">
+      <c r="Q20" s="6">
         <v>1</v>
       </c>
-      <c r="S20" s="8">
+      <c r="R20" s="6">
         <v>0.97435897400000004</v>
       </c>
-      <c r="T20" s="8">
+      <c r="S20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
@@ -1719,51 +1652,48 @@
         <v>45245</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="6">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3143</v>
       </c>
       <c r="I21" s="1">
-        <v>3143</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1">
-        <v>43</v>
-      </c>
-      <c r="K21" s="1">
         <v>337</v>
       </c>
-      <c r="L21">
+      <c r="K21" s="7">
         <v>1.443260325</v>
       </c>
-      <c r="M21" s="7">
+      <c r="L21" s="6">
         <v>1.450376205</v>
       </c>
-      <c r="N21" s="7">
+      <c r="M21" s="6">
         <v>1.455915523</v>
       </c>
-      <c r="O21" s="7">
+      <c r="N21" s="6">
         <v>1.4304585480000001</v>
       </c>
-      <c r="P21" s="7">
+      <c r="O21" s="6">
         <v>1.4522107959999999</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="P21" s="6">
         <v>1.4892536190000001</v>
       </c>
-      <c r="R21" s="8">
+      <c r="Q21" s="6">
         <v>1</v>
       </c>
-      <c r="S21" s="8">
+      <c r="R21" s="6">
         <v>0.89743589700000004</v>
       </c>
-      <c r="T21" s="8">
+      <c r="S21" s="6">
         <v>0.92682926799999998</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>23</v>
@@ -1781,51 +1711,48 @@
         <v>45248</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="6">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1534</v>
       </c>
       <c r="I22" s="1">
-        <v>1534</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1">
-        <v>47</v>
-      </c>
-      <c r="K22" s="1">
         <v>383</v>
       </c>
-      <c r="L22">
+      <c r="K22" s="7">
         <v>1.0038870209999999</v>
       </c>
-      <c r="M22" s="7">
+      <c r="L22" s="6">
         <v>0.92812119999999998</v>
       </c>
-      <c r="N22" s="7">
+      <c r="M22" s="6">
         <v>1.1101124630000001</v>
       </c>
-      <c r="O22" s="7">
+      <c r="N22" s="6">
         <v>1.0103765490000001</v>
       </c>
-      <c r="P22" s="7">
+      <c r="O22" s="6">
         <v>1.041688891</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="P22" s="6">
         <v>1.1119382310000001</v>
       </c>
-      <c r="R22" s="8">
+      <c r="Q22" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S22" s="8">
+      <c r="R22" s="6">
         <v>0.94871794899999995</v>
       </c>
-      <c r="T22" s="8">
+      <c r="S22" s="6">
         <v>0.95121951199999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
         <v>24</v>
@@ -1843,51 +1770,48 @@
         <v>45275</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="6">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2376</v>
       </c>
       <c r="I23" s="1">
-        <v>2376</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1">
-        <v>37</v>
-      </c>
-      <c r="K23" s="1">
         <v>326</v>
       </c>
-      <c r="L23">
+      <c r="K23" s="7">
         <v>0.85724663599999995</v>
       </c>
-      <c r="M23" s="7">
+      <c r="L23" s="6">
         <v>0.90680480500000005</v>
       </c>
-      <c r="N23" s="7">
+      <c r="M23" s="6">
         <v>0.99143481899999997</v>
       </c>
-      <c r="O23" s="7">
+      <c r="N23" s="6">
         <v>1.115849946</v>
       </c>
-      <c r="P23" s="7">
+      <c r="O23" s="6">
         <v>1.0228509779999999</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="P23" s="6">
         <v>1.017050343</v>
       </c>
-      <c r="R23" s="8">
+      <c r="Q23" s="6">
         <v>0.97499999999999998</v>
       </c>
-      <c r="S23" s="8">
+      <c r="R23" s="6">
         <v>0.71794871800000004</v>
       </c>
-      <c r="T23" s="8">
+      <c r="S23" s="6">
         <v>0.73170731700000002</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3">
         <v>35</v>
@@ -1905,51 +1829,48 @@
         <v>45286</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="6">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1428</v>
       </c>
       <c r="I24" s="1">
-        <v>1428</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1">
-        <v>41</v>
-      </c>
-      <c r="K24" s="1">
         <v>365</v>
       </c>
-      <c r="L24">
+      <c r="K24" s="7">
         <v>1.134554193</v>
       </c>
-      <c r="M24" s="7">
+      <c r="L24" s="6">
         <v>1.1333347</v>
       </c>
-      <c r="N24" s="7">
+      <c r="M24" s="6">
         <v>1.1522787400000001</v>
       </c>
-      <c r="O24" s="7">
+      <c r="N24" s="6">
         <v>1.072974023</v>
       </c>
-      <c r="P24" s="7">
+      <c r="O24" s="6">
         <v>1.134814293</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="P24" s="6">
         <v>1.3789463689999999</v>
       </c>
-      <c r="R24" s="8">
+      <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="S24" s="8">
+      <c r="R24" s="6">
         <v>0.84615384599999999</v>
       </c>
-      <c r="T24" s="8">
+      <c r="S24" s="6">
         <v>0.90243902399999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3">
         <v>22</v>
@@ -1967,52 +1888,48 @@
         <v>45244</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="6">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2691</v>
       </c>
       <c r="I25" s="1">
-        <v>2691</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1">
-        <v>31</v>
-      </c>
-      <c r="K25" s="1">
         <v>264</v>
       </c>
-      <c r="L25">
+      <c r="K25" s="7">
         <v>1.2995250229999999</v>
       </c>
-      <c r="M25" s="7">
+      <c r="L25" s="6">
         <v>1.3024371749999999</v>
       </c>
-      <c r="N25" s="7">
+      <c r="M25" s="6">
         <v>1.3753896670000001</v>
       </c>
-      <c r="O25" s="7">
+      <c r="N25" s="6">
         <v>1.4075255170000001</v>
       </c>
-      <c r="P25" s="7">
+      <c r="O25" s="6">
         <v>1.347778253</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="P25" s="6">
         <v>1.4279744160000001</v>
       </c>
-      <c r="R25" s="8">
+      <c r="Q25" s="6">
         <v>1</v>
       </c>
-      <c r="S25" s="8">
+      <c r="R25" s="6">
         <v>0.94871794899999995</v>
       </c>
-      <c r="T25" s="8">
+      <c r="S25" s="6">
         <v>0.82926829300000005</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
